--- a/log/RunRealTimeStock/2024-11-08DailyResultWeb.xlsx
+++ b/log/RunRealTimeStock/2024-11-08DailyResultWeb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1051"/>
+  <dimension ref="A1:D1053"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17224,22 +17224,52 @@
       </c>
     </row>
     <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>2886</t>
-        </is>
+      <c r="A1051" t="n">
+        <v>2886</v>
       </c>
       <c r="B1051" t="n">
         <v>39.1</v>
       </c>
-      <c r="C1051" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.00</t>
-        </is>
+      <c r="C1051" t="n">
+        <v>0</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
           <t>-0.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="n">
+        <v>9962</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="D1052" t="inlineStr">
+        <is>
+          <t>-0.64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>9960</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr"/>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D1053" t="inlineStr">
+        <is>
+          <t>nan%</t>
         </is>
       </c>
     </row>
